--- a/biology/Zoologie/Hexophthalma_hahni/Hexophthalma_hahni.xlsx
+++ b/biology/Zoologie/Hexophthalma_hahni/Hexophthalma_hahni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,11 +518,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Elle peut être brune, rouge ou encore jaune.
-Hexophthalma hahni est une espèce d'araignées aranéomorphes de la famille des Sicariidae[1]. On l'appelle aussi, et surtout, l'araignée des sables ou l'araignée des sables à six yeux.
+Hexophthalma hahni est une espèce d'araignées aranéomorphes de la famille des Sicariidae. On l'appelle aussi, et surtout, l'araignée des sables ou l'araignée des sables à six yeux.
 </t>
         </is>
       </c>
@@ -539,9 +553,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Namibie, au Zimbabwe et en Afrique du Sud[1]. L'espèce vit principalement dans les régions désertiques d'Afrique du sud.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Namibie, au Zimbabwe et en Afrique du Sud. L'espèce vit principalement dans les régions désertiques d'Afrique du sud.
 </t>
         </is>
       </c>
@@ -570,10 +586,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 11 mm[2].
-Le mâle décrit par Lotz en 2012 mesure 10,8 mm et la femelle 10,5 mm[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 11 mm.
+Le mâle décrit par Lotz en 2012 mesure 10,8 mm et la femelle 10,5 mm
 </t>
         </is>
       </c>
@@ -602,7 +620,9 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son venin très puissant provoque un effet hémolytique, cela signifie la rupture des globules rouges et la libération d'hémoglobine. Son venin provoque aussi un effet nécrotique, destruction des cellules et des tissus. Contrairement à certains venins neurotoxiques qui agressent le cerveau, le poison hémotoxique de l'araignée des sables ne connaît pas de remède pour l’instant. 
 </t>
@@ -633,10 +653,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1876, il est remplacé par Hexophthalma par Karsch en 1879[4]. Elle est placée dans le genre Sicarius par Simon en 1893[5] puis dans le genre Hexophthalma par Magalhães, Brescovit et Santos en 2017[6].
-Sicarius testaceus[7] a été placée en synonymie par Lotz en 2018[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1876, il est remplacé par Hexophthalma par Karsch en 1879. Elle est placée dans le genre Sicarius par Simon en 1893 puis dans le genre Hexophthalma par Magalhães, Brescovit et Santos en 2017.
+Sicarius testaceus a été placée en synonymie par Lotz en 2018.
 </t>
         </is>
       </c>
@@ -665,9 +687,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Carl-Hugo Hahn[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Carl-Hugo Hahn.
 </t>
         </is>
       </c>
@@ -696,7 +720,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Karsch, 1878 : « Exotisch-araneologisches. 1. » Zeitschrift für die gesammten Naturwissenschaften, vol. 51, p. 332-333.</t>
         </is>
